--- a/import/prep/excel_original_receipt/65-2ทะเบียนคุมใบแจ้งหนี้ใบเสร็จ กย64 (1-30พย64).xlsx
+++ b/import/prep/excel_original_receipt/65-2ทะเบียนคุมใบแจ้งหนี้ใบเสร็จ กย64 (1-30พย64).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr dateCompatibility="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/atitayasamaset/Detail/WMA/Excel(billing)/excel (TEST)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thansitar/Downloads/excel_original_receipt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{9D9FAD03-3594-724C-8352-117A8AF05F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{8D8EC9B7-9DB8-EB40-B1C8-7A6278045B14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="520" windowWidth="28800" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="520" windowWidth="28800" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="type2" sheetId="1" state="hidden" r:id="rId1"/>
@@ -11634,6 +11634,8 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -11670,19 +11672,13 @@
     <xf numFmtId="165" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -11712,23 +11708,27 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -12043,22 +12043,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="189" t="s">
+      <c r="A1" s="191" t="s">
         <v>2959</v>
       </c>
-      <c r="B1" s="190"/>
-      <c r="C1" s="190"/>
-      <c r="D1" s="190"/>
-      <c r="E1" s="190"/>
-      <c r="F1" s="190"/>
-      <c r="G1" s="190"/>
-      <c r="H1" s="190"/>
-      <c r="I1" s="190"/>
-      <c r="J1" s="190"/>
-      <c r="K1" s="190"/>
-      <c r="L1" s="190"/>
-      <c r="M1" s="190"/>
-      <c r="N1" s="190"/>
+      <c r="B1" s="192"/>
+      <c r="C1" s="192"/>
+      <c r="D1" s="192"/>
+      <c r="E1" s="192"/>
+      <c r="F1" s="192"/>
+      <c r="G1" s="192"/>
+      <c r="H1" s="192"/>
+      <c r="I1" s="192"/>
+      <c r="J1" s="192"/>
+      <c r="K1" s="192"/>
+      <c r="L1" s="192"/>
+      <c r="M1" s="192"/>
+      <c r="N1" s="192"/>
     </row>
     <row r="2" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="180"/>
@@ -12080,25 +12080,25 @@
       <c r="P2" s="134"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="191" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="191" t="s">
+      <c r="A3" s="193" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="193" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="181" t="s">
         <v>468</v>
       </c>
-      <c r="D3" s="191" t="s">
+      <c r="D3" s="193" t="s">
         <v>470</v>
       </c>
-      <c r="E3" s="191" t="s">
+      <c r="E3" s="193" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="181" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="193" t="s">
+      <c r="G3" s="195" t="s">
         <v>422</v>
       </c>
       <c r="H3" s="126" t="s">
@@ -12107,47 +12107,47 @@
       <c r="I3" s="182" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="191" t="s">
+      <c r="J3" s="193" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="191" t="s">
+      <c r="K3" s="193" t="s">
         <v>7</v>
       </c>
       <c r="L3" s="181" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="191" t="s">
+      <c r="M3" s="193" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="192" t="s">
+      <c r="N3" s="194" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="24" x14ac:dyDescent="0.4">
-      <c r="A4" s="191"/>
-      <c r="B4" s="191"/>
+      <c r="A4" s="193"/>
+      <c r="B4" s="193"/>
       <c r="C4" s="181" t="s">
         <v>469</v>
       </c>
-      <c r="D4" s="191"/>
-      <c r="E4" s="191"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="193"/>
       <c r="F4" s="181" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="193"/>
+      <c r="G4" s="195"/>
       <c r="H4" s="126" t="s">
         <v>12</v>
       </c>
       <c r="I4" s="182" t="s">
         <v>381</v>
       </c>
-      <c r="J4" s="191"/>
-      <c r="K4" s="191"/>
+      <c r="J4" s="193"/>
+      <c r="K4" s="193"/>
       <c r="L4" s="181" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="191"/>
-      <c r="N4" s="192"/>
+      <c r="M4" s="193"/>
+      <c r="N4" s="194"/>
       <c r="R4" s="135" t="s">
         <v>2960</v>
       </c>
@@ -51951,22 +51951,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A1" s="194" t="s">
+      <c r="A1" s="196" t="s">
         <v>3147</v>
       </c>
-      <c r="B1" s="194"/>
-      <c r="C1" s="194"/>
-      <c r="D1" s="194"/>
-      <c r="E1" s="194"/>
-      <c r="F1" s="194"/>
-      <c r="G1" s="194"/>
-      <c r="H1" s="194"/>
-      <c r="I1" s="194"/>
-      <c r="J1" s="194"/>
-      <c r="K1" s="194"/>
-      <c r="L1" s="194"/>
-      <c r="M1" s="194"/>
-      <c r="N1" s="194"/>
+      <c r="B1" s="196"/>
+      <c r="C1" s="196"/>
+      <c r="D1" s="196"/>
+      <c r="E1" s="196"/>
+      <c r="F1" s="196"/>
+      <c r="G1" s="196"/>
+      <c r="H1" s="196"/>
+      <c r="I1" s="196"/>
+      <c r="J1" s="196"/>
+      <c r="K1" s="196"/>
+      <c r="L1" s="196"/>
+      <c r="M1" s="196"/>
+      <c r="N1" s="196"/>
       <c r="O1" s="162"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.4">
@@ -51987,25 +51987,25 @@
       </c>
     </row>
     <row r="3" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="195" t="s">
+      <c r="A3" s="197" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="197" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="184" t="s">
         <v>468</v>
       </c>
-      <c r="D3" s="195" t="s">
+      <c r="D3" s="197" t="s">
         <v>470</v>
       </c>
-      <c r="E3" s="195" t="s">
+      <c r="E3" s="197" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="186" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="197" t="s">
+      <c r="G3" s="199" t="s">
         <v>422</v>
       </c>
       <c r="H3" s="126" t="s">
@@ -52014,47 +52014,47 @@
       <c r="I3" s="182" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="195" t="s">
+      <c r="J3" s="197" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="195" t="s">
+      <c r="K3" s="197" t="s">
         <v>7</v>
       </c>
       <c r="L3" s="186" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="195" t="s">
+      <c r="M3" s="197" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="199" t="s">
+      <c r="N3" s="201" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A4" s="196"/>
-      <c r="B4" s="196"/>
+      <c r="A4" s="198"/>
+      <c r="B4" s="198"/>
       <c r="C4" s="185" t="s">
         <v>469</v>
       </c>
-      <c r="D4" s="196"/>
-      <c r="E4" s="196"/>
+      <c r="D4" s="198"/>
+      <c r="E4" s="198"/>
       <c r="F4" s="186" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="198"/>
+      <c r="G4" s="200"/>
       <c r="H4" s="126" t="s">
         <v>12</v>
       </c>
       <c r="I4" s="182" t="s">
         <v>381</v>
       </c>
-      <c r="J4" s="196"/>
-      <c r="K4" s="196"/>
+      <c r="J4" s="198"/>
+      <c r="K4" s="198"/>
       <c r="L4" s="186" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="196"/>
-      <c r="N4" s="200"/>
+      <c r="M4" s="198"/>
+      <c r="N4" s="202"/>
       <c r="Q4" s="164"/>
       <c r="R4" s="165" t="s">
         <v>2960</v>
@@ -64472,8 +64472,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AB256"/>
   <sheetViews>
-    <sheetView topLeftCell="F228" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q230" sqref="Q230:Q231"/>
+    <sheetView tabSelected="1" topLeftCell="A225" zoomScale="61" zoomScaleNormal="61" workbookViewId="0">
+      <selection activeCell="F251" sqref="F251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="24" x14ac:dyDescent="0.4"/>
@@ -64503,25 +64503,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.5">
-      <c r="A1" s="215" t="s">
+      <c r="A1" s="203" t="s">
         <v>2955</v>
       </c>
-      <c r="B1" s="215"/>
-      <c r="C1" s="215"/>
-      <c r="D1" s="215"/>
-      <c r="E1" s="215"/>
-      <c r="F1" s="215"/>
-      <c r="G1" s="215"/>
-      <c r="H1" s="215"/>
-      <c r="I1" s="215"/>
-      <c r="J1" s="215"/>
-      <c r="K1" s="215"/>
-      <c r="L1" s="215"/>
-      <c r="M1" s="215"/>
-      <c r="N1" s="215"/>
-      <c r="O1" s="215"/>
-      <c r="P1" s="215"/>
-      <c r="Q1" s="215"/>
+      <c r="B1" s="203"/>
+      <c r="C1" s="203"/>
+      <c r="D1" s="203"/>
+      <c r="E1" s="203"/>
+      <c r="F1" s="203"/>
+      <c r="G1" s="203"/>
+      <c r="H1" s="203"/>
+      <c r="I1" s="203"/>
+      <c r="J1" s="203"/>
+      <c r="K1" s="203"/>
+      <c r="L1" s="203"/>
+      <c r="M1" s="203"/>
+      <c r="N1" s="203"/>
+      <c r="O1" s="203"/>
+      <c r="P1" s="203"/>
+      <c r="Q1" s="203"/>
       <c r="R1" s="24"/>
       <c r="S1" s="109"/>
       <c r="T1" s="109"/>
@@ -64555,28 +64555,28 @@
       <c r="V2" s="9"/>
     </row>
     <row r="3" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="216" t="s">
+      <c r="A3" s="204" t="s">
         <v>2851</v>
       </c>
-      <c r="B3" s="216" t="s">
+      <c r="B3" s="204" t="s">
         <v>2852</v>
       </c>
-      <c r="C3" s="216" t="s">
+      <c r="C3" s="204" t="s">
         <v>2853</v>
       </c>
-      <c r="D3" s="217" t="s">
+      <c r="D3" s="205" t="s">
         <v>2854</v>
       </c>
-      <c r="E3" s="216" t="s">
+      <c r="E3" s="204" t="s">
         <v>2855</v>
       </c>
-      <c r="F3" s="195" t="s">
+      <c r="F3" s="197" t="s">
         <v>2</v>
       </c>
       <c r="G3" s="29" t="s">
         <v>2856</v>
       </c>
-      <c r="H3" s="195" t="s">
+      <c r="H3" s="197" t="s">
         <v>2884</v>
       </c>
       <c r="I3" s="206" t="s">
@@ -64586,7 +64586,7 @@
       <c r="K3" s="208" t="s">
         <v>2858</v>
       </c>
-      <c r="L3" s="201" t="s">
+      <c r="L3" s="215" t="s">
         <v>2859</v>
       </c>
       <c r="M3" s="208" t="s">
@@ -64607,13 +64607,13 @@
       <c r="R3" s="213" t="s">
         <v>708</v>
       </c>
-      <c r="S3" s="203">
+      <c r="S3" s="217">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T3" s="204" t="s">
+      <c r="T3" s="218" t="s">
         <v>6</v>
       </c>
-      <c r="U3" s="205" t="s">
+      <c r="U3" s="219" t="s">
         <v>2862</v>
       </c>
       <c r="V3" s="210" t="s">
@@ -64621,20 +64621,20 @@
       </c>
     </row>
     <row r="4" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="216"/>
-      <c r="B4" s="216"/>
-      <c r="C4" s="216"/>
-      <c r="D4" s="217"/>
-      <c r="E4" s="216"/>
-      <c r="F4" s="196"/>
+      <c r="A4" s="204"/>
+      <c r="B4" s="204"/>
+      <c r="C4" s="204"/>
+      <c r="D4" s="205"/>
+      <c r="E4" s="204"/>
+      <c r="F4" s="198"/>
       <c r="G4" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="196"/>
+      <c r="H4" s="198"/>
       <c r="I4" s="207"/>
       <c r="J4" s="111"/>
       <c r="K4" s="209"/>
-      <c r="L4" s="202"/>
+      <c r="L4" s="216"/>
       <c r="M4" s="209"/>
       <c r="N4" s="209"/>
       <c r="O4" s="209"/>
@@ -64643,9 +64643,9 @@
       </c>
       <c r="Q4" s="212"/>
       <c r="R4" s="214"/>
-      <c r="S4" s="203"/>
-      <c r="T4" s="204"/>
-      <c r="U4" s="205"/>
+      <c r="S4" s="217"/>
+      <c r="T4" s="218"/>
+      <c r="U4" s="219"/>
       <c r="V4" s="210"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.4">
@@ -71010,7 +71010,7 @@
         <f t="shared" si="8"/>
         <v>71.150000000000006</v>
       </c>
-      <c r="Q107" s="220">
+      <c r="Q107" s="189">
         <v>71.25</v>
       </c>
       <c r="R107" s="38">
@@ -71074,7 +71074,7 @@
         <f t="shared" si="8"/>
         <v>59.92</v>
       </c>
-      <c r="Q108" s="221">
+      <c r="Q108" s="190">
         <v>60</v>
       </c>
       <c r="R108" s="38">
@@ -74508,7 +74508,7 @@
         <f t="shared" si="14"/>
         <v>93.62</v>
       </c>
-      <c r="Q162" s="220">
+      <c r="Q162" s="189">
         <v>93.62</v>
       </c>
       <c r="R162" s="38" t="s">
@@ -74573,7 +74573,7 @@
         <f t="shared" si="14"/>
         <v>74.900000000000006</v>
       </c>
-      <c r="Q163" s="221">
+      <c r="Q163" s="190">
         <v>74.900000000000006</v>
       </c>
       <c r="R163" s="38" t="s">
@@ -76341,7 +76341,7 @@
         <f t="shared" si="14"/>
         <v>138.57</v>
       </c>
-      <c r="Q191" s="220">
+      <c r="Q191" s="189">
         <v>138.57</v>
       </c>
       <c r="R191" s="38" t="s">
@@ -76405,7 +76405,7 @@
         <f t="shared" si="14"/>
         <v>205.98</v>
       </c>
-      <c r="Q192" s="221">
+      <c r="Q192" s="190">
         <v>205.98</v>
       </c>
       <c r="R192" s="38" t="s">
@@ -78643,7 +78643,7 @@
         <f t="shared" si="20"/>
         <v>453.14</v>
       </c>
-      <c r="Q228" s="220">
+      <c r="Q228" s="189">
         <v>453.2</v>
       </c>
       <c r="R228" s="38">
@@ -78705,7 +78705,7 @@
         <f t="shared" si="20"/>
         <v>430.67</v>
       </c>
-      <c r="Q229" s="221">
+      <c r="Q229" s="190">
         <v>430.8</v>
       </c>
       <c r="R229" s="38">
@@ -78769,7 +78769,7 @@
         <f t="shared" si="20"/>
         <v>1351.94</v>
       </c>
-      <c r="Q230" s="220">
+      <c r="Q230" s="189">
         <v>1352</v>
       </c>
       <c r="R230" s="38">
@@ -78829,7 +78829,7 @@
         <f t="shared" si="20"/>
         <v>1179.67</v>
       </c>
-      <c r="Q231" s="221">
+      <c r="Q231" s="190">
         <v>1179.75</v>
       </c>
       <c r="R231" s="38">
@@ -79847,6 +79847,15 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -79857,16 +79866,7 @@
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="K3:K4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
     <mergeCell ref="L3:L4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -79877,8 +79877,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AA112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F112" sqref="F112"/>
+    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="24" x14ac:dyDescent="0.4"/>
@@ -79909,25 +79909,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="194" t="s">
+      <c r="A1" s="196" t="s">
         <v>2958</v>
       </c>
-      <c r="B1" s="194"/>
-      <c r="C1" s="194"/>
-      <c r="D1" s="194"/>
-      <c r="E1" s="194"/>
-      <c r="F1" s="194"/>
-      <c r="G1" s="194"/>
-      <c r="H1" s="194"/>
-      <c r="I1" s="194"/>
-      <c r="J1" s="194"/>
-      <c r="K1" s="194"/>
-      <c r="L1" s="194"/>
-      <c r="M1" s="194"/>
-      <c r="N1" s="194"/>
-      <c r="O1" s="194"/>
-      <c r="P1" s="194"/>
-      <c r="Q1" s="194"/>
+      <c r="B1" s="196"/>
+      <c r="C1" s="196"/>
+      <c r="D1" s="196"/>
+      <c r="E1" s="196"/>
+      <c r="F1" s="196"/>
+      <c r="G1" s="196"/>
+      <c r="H1" s="196"/>
+      <c r="I1" s="196"/>
+      <c r="J1" s="196"/>
+      <c r="K1" s="196"/>
+      <c r="L1" s="196"/>
+      <c r="M1" s="196"/>
+      <c r="N1" s="196"/>
+      <c r="O1" s="196"/>
+      <c r="P1" s="196"/>
+      <c r="Q1" s="196"/>
       <c r="R1" s="28"/>
       <c r="S1" s="173"/>
       <c r="T1" s="173"/>
@@ -79963,28 +79963,28 @@
       <c r="Z2" s="9"/>
     </row>
     <row r="3" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="216" t="s">
+      <c r="A3" s="204" t="s">
         <v>2851</v>
       </c>
-      <c r="B3" s="216" t="s">
+      <c r="B3" s="204" t="s">
         <v>2852</v>
       </c>
-      <c r="C3" s="216" t="s">
+      <c r="C3" s="204" t="s">
         <v>2853</v>
       </c>
-      <c r="D3" s="217" t="s">
+      <c r="D3" s="205" t="s">
         <v>2854</v>
       </c>
-      <c r="E3" s="216" t="s">
+      <c r="E3" s="204" t="s">
         <v>2855</v>
       </c>
-      <c r="F3" s="195" t="s">
+      <c r="F3" s="197" t="s">
         <v>2</v>
       </c>
       <c r="G3" s="29" t="s">
         <v>2856</v>
       </c>
-      <c r="H3" s="195" t="s">
+      <c r="H3" s="197" t="s">
         <v>2868</v>
       </c>
       <c r="I3" s="206" t="s">
@@ -79994,7 +79994,7 @@
       <c r="K3" s="208" t="s">
         <v>2858</v>
       </c>
-      <c r="L3" s="201" t="s">
+      <c r="L3" s="215" t="s">
         <v>2859</v>
       </c>
       <c r="M3" s="208" t="s">
@@ -80012,16 +80012,16 @@
       <c r="Q3" s="211" t="s">
         <v>2862</v>
       </c>
-      <c r="R3" s="219" t="s">
+      <c r="R3" s="220" t="s">
         <v>708</v>
       </c>
-      <c r="S3" s="203">
+      <c r="S3" s="217">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T3" s="204" t="s">
+      <c r="T3" s="218" t="s">
         <v>6</v>
       </c>
-      <c r="U3" s="205" t="s">
+      <c r="U3" s="219" t="s">
         <v>2862</v>
       </c>
       <c r="V3" s="210" t="s">
@@ -80030,31 +80030,31 @@
       <c r="Z3" s="9"/>
     </row>
     <row r="4" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="216"/>
-      <c r="B4" s="216"/>
-      <c r="C4" s="216"/>
-      <c r="D4" s="217"/>
-      <c r="E4" s="216"/>
-      <c r="F4" s="196"/>
+      <c r="A4" s="204"/>
+      <c r="B4" s="204"/>
+      <c r="C4" s="204"/>
+      <c r="D4" s="205"/>
+      <c r="E4" s="204"/>
+      <c r="F4" s="198"/>
       <c r="G4" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="196"/>
+      <c r="H4" s="198"/>
       <c r="I4" s="207"/>
       <c r="J4" s="175"/>
       <c r="K4" s="209"/>
-      <c r="L4" s="202"/>
+      <c r="L4" s="216"/>
       <c r="M4" s="209"/>
       <c r="N4" s="209"/>
       <c r="O4" s="209"/>
       <c r="P4" s="177" t="s">
         <v>398</v>
       </c>
-      <c r="Q4" s="218"/>
-      <c r="R4" s="219"/>
-      <c r="S4" s="203"/>
-      <c r="T4" s="204"/>
-      <c r="U4" s="205"/>
+      <c r="Q4" s="221"/>
+      <c r="R4" s="220"/>
+      <c r="S4" s="217"/>
+      <c r="T4" s="218"/>
+      <c r="U4" s="219"/>
       <c r="V4" s="210"/>
       <c r="Z4" s="9"/>
     </row>
@@ -86192,13 +86192,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="R3:R4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="K3:K4"/>
@@ -86212,6 +86205,13 @@
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="S3:S4"/>
     <mergeCell ref="I3:I4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="R3:R4"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
